--- a/csv/model/CIMS_FIC/formula_CIMS_FIC_BC.xlsx
+++ b/csv/model/CIMS_FIC/formula_CIMS_FIC_BC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_FIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7DFC0A-A8E4-4385-B645-77AEA618BE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D81FAA-D583-4A32-89E7-49F8EC86CA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37170" yWindow="5385" windowWidth="17250" windowHeight="8865" xr2:uid="{EA2A1593-7804-4AF7-8B66-2C756A224B78}"/>
+    <workbookView xWindow="37605" yWindow="5820" windowWidth="17250" windowHeight="8865" xr2:uid="{69D36DCE-8A67-4964-8AFB-825DD714641A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="407">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -995,61 +995,49 @@
     <t>CIMS.CAN.BC.Residential.Dwellings.Building Type.Non Apt Vintage.2036+ (passive) Bldg Code.Heating (C)</t>
   </si>
   <si>
+    <t>CIMS.CAN.BC.Commercial.HVAC (C)</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>HVAC (C)</t>
+  </si>
+  <si>
+    <t>Ground source heat pump</t>
+  </si>
+  <si>
+    <t>NG - ASHP</t>
+  </si>
+  <si>
+    <t>NG Cogeneration</t>
+  </si>
+  <si>
+    <t>NG existing</t>
+  </si>
+  <si>
+    <t>NG improved</t>
+  </si>
+  <si>
+    <t>Oil existing</t>
+  </si>
+  <si>
+    <t>Oil improved</t>
+  </si>
+  <si>
+    <t>Propane existing</t>
+  </si>
+  <si>
+    <t>Propane new</t>
+  </si>
+  <si>
     <t>CIMS.CAN.BC.Commercial.HVAC (T)</t>
   </si>
   <si>
-    <t>Commercial</t>
-  </si>
-  <si>
     <t>HVAC (T)</t>
   </si>
   <si>
-    <t>Oil existing</t>
-  </si>
-  <si>
-    <t>Oil New</t>
-  </si>
-  <si>
-    <t>Oil improved</t>
-  </si>
-  <si>
-    <t>Electric new</t>
-  </si>
-  <si>
     <t>Electric improved</t>
-  </si>
-  <si>
-    <t>NG new</t>
-  </si>
-  <si>
-    <t>NG improved</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.BC.Commercial.HVAC (C)</t>
-  </si>
-  <si>
-    <t>HVAC (C)</t>
-  </si>
-  <si>
-    <t>NG - ASHP</t>
-  </si>
-  <si>
-    <t>Propane existing</t>
-  </si>
-  <si>
-    <t>Propane new</t>
-  </si>
-  <si>
-    <t>NG existing</t>
-  </si>
-  <si>
-    <t>NG Cogeneration</t>
-  </si>
-  <si>
-    <t>NG Cogeneration improved</t>
-  </si>
-  <si>
-    <t>NG Cogeneration Fuel Cell</t>
   </si>
   <si>
     <t>CIMS.CAN.BC.Commercial.Buildings.Lighting.General Area</t>
@@ -1639,11 +1627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BAD75E-2651-4C5F-9C0C-3D3B7ECA01C8}">
-  <dimension ref="A1:X384"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99822730-7847-4C4E-910D-4EC6840B2627}">
+  <dimension ref="A1:X378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X384"/>
+      <selection sqref="A1:X378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6236,7 +6224,7 @@
         <v>-1500000000</v>
       </c>
       <c r="N73">
-        <f t="shared" ref="N73:W103" si="3">M73</f>
+        <f t="shared" ref="N73:W98" si="3">M73</f>
         <v>-1500000000</v>
       </c>
       <c r="O73">
@@ -7981,7 +7969,7 @@
         <v>1227368.459</v>
       </c>
       <c r="S98">
-        <f t="shared" ref="N98:W128" si="4">R98</f>
+        <f t="shared" ref="N98:W123" si="4">R98</f>
         <v>1227368.459</v>
       </c>
       <c r="T98">
@@ -12822,7 +12810,7 @@
         <v>855.18234165067202</v>
       </c>
       <c r="N169">
-        <f t="shared" ref="N169:W356" si="10">M169</f>
+        <f t="shared" ref="N169:W350" si="10">M169</f>
         <v>855.18234165067202</v>
       </c>
       <c r="O169">
@@ -21799,7 +21787,7 @@
         <v>321</v>
       </c>
       <c r="F314" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="G314" t="s">
         <v>19</v>
@@ -21808,37 +21796,37 @@
         <v>20</v>
       </c>
       <c r="M314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="R314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="S314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="T314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="U314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="V314">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W314">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:24" x14ac:dyDescent="0.3">
@@ -21858,7 +21846,7 @@
         <v>321</v>
       </c>
       <c r="F315" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="G315" t="s">
         <v>19</v>
@@ -21867,37 +21855,37 @@
         <v>20</v>
       </c>
       <c r="M315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="R315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="S315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="T315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="U315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="V315">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W315">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:24" x14ac:dyDescent="0.3">
@@ -21917,7 +21905,7 @@
         <v>321</v>
       </c>
       <c r="F316" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="G316" t="s">
         <v>19</v>
@@ -21926,37 +21914,37 @@
         <v>20</v>
       </c>
       <c r="M316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="R316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="S316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="T316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="U316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="V316">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W316">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:24" x14ac:dyDescent="0.3">
@@ -21976,7 +21964,7 @@
         <v>321</v>
       </c>
       <c r="F317" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G317" t="s">
         <v>19</v>
@@ -21985,37 +21973,37 @@
         <v>20</v>
       </c>
       <c r="M317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Q317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="S317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="U317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W317">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:24" x14ac:dyDescent="0.3">
@@ -22035,7 +22023,7 @@
         <v>321</v>
       </c>
       <c r="F318" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G318" t="s">
         <v>19</v>
@@ -22044,37 +22032,37 @@
         <v>20</v>
       </c>
       <c r="M318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W318">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.3">
@@ -22094,7 +22082,7 @@
         <v>321</v>
       </c>
       <c r="F319" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G319" t="s">
         <v>19</v>
@@ -22103,37 +22091,37 @@
         <v>20</v>
       </c>
       <c r="M319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="N319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="O319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="P319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="Q319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="R319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="S319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="T319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="U319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="V319">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="W319">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:24" x14ac:dyDescent="0.3">
@@ -22153,7 +22141,7 @@
         <v>321</v>
       </c>
       <c r="F320" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G320" t="s">
         <v>19</v>
@@ -22197,7 +22185,7 @@
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
@@ -22209,10 +22197,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F321" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G321" t="s">
         <v>19</v>
@@ -22221,42 +22209,42 @@
         <v>20</v>
       </c>
       <c r="M321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="O321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="R321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="T321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="U321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="V321">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="W321">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
@@ -22268,10 +22256,10 @@
         <v>320</v>
       </c>
       <c r="E322" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F322" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G322" t="s">
         <v>19</v>
@@ -22315,7 +22303,7 @@
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
@@ -22327,10 +22315,10 @@
         <v>320</v>
       </c>
       <c r="E323" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F323" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G323" t="s">
         <v>19</v>
@@ -22339,42 +22327,42 @@
         <v>20</v>
       </c>
       <c r="M323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="O323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="P323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Q323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="R323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="S323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="T323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="U323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="V323">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="W323">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B324" t="s">
         <v>4</v>
@@ -22386,10 +22374,10 @@
         <v>320</v>
       </c>
       <c r="E324" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F324" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G324" t="s">
         <v>19</v>
@@ -22398,42 +22386,42 @@
         <v>20</v>
       </c>
       <c r="M324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="U324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="V324">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="W324">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B325" t="s">
         <v>4</v>
@@ -22445,11 +22433,11 @@
         <v>320</v>
       </c>
       <c r="E325" t="s">
+        <v>321</v>
+      </c>
+      <c r="F325" t="s">
         <v>330</v>
       </c>
-      <c r="F325" t="s">
-        <v>327</v>
-      </c>
       <c r="G325" t="s">
         <v>19</v>
       </c>
@@ -22457,42 +22445,42 @@
         <v>20</v>
       </c>
       <c r="M325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="O325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="R325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="S325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="T325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="U325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="V325">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="W325">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="326" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
@@ -22504,10 +22492,10 @@
         <v>320</v>
       </c>
       <c r="E326" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F326" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="G326" t="s">
         <v>19</v>
@@ -22516,42 +22504,42 @@
         <v>20</v>
       </c>
       <c r="M326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V326">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W326">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B327" t="s">
         <v>4</v>
@@ -22563,10 +22551,10 @@
         <v>320</v>
       </c>
       <c r="E327" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F327" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="G327" t="s">
         <v>19</v>
@@ -22575,42 +22563,42 @@
         <v>20</v>
       </c>
       <c r="M327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="O327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="P327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="Q327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="R327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="S327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="T327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="U327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="V327">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="W327">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B328" t="s">
         <v>4</v>
@@ -22622,10 +22610,10 @@
         <v>320</v>
       </c>
       <c r="E328" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F328" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="G328" t="s">
         <v>19</v>
@@ -22634,42 +22622,42 @@
         <v>20</v>
       </c>
       <c r="M328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V328">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W328">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
@@ -22681,10 +22669,10 @@
         <v>320</v>
       </c>
       <c r="E329" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F329" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G329" t="s">
         <v>19</v>
@@ -22728,7 +22716,7 @@
     </row>
     <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B330" t="s">
         <v>4</v>
@@ -22740,10 +22728,10 @@
         <v>320</v>
       </c>
       <c r="E330" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F330" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="G330" t="s">
         <v>19</v>
@@ -22752,42 +22740,42 @@
         <v>20</v>
       </c>
       <c r="M330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="O330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="P330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="Q330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="R330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="S330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="T330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="U330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="V330">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="W330">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B331" t="s">
         <v>4</v>
@@ -22799,10 +22787,10 @@
         <v>320</v>
       </c>
       <c r="E331" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F331" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G331" t="s">
         <v>19</v>
@@ -22811,42 +22799,42 @@
         <v>20</v>
       </c>
       <c r="M331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V331">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W331">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B332" t="s">
         <v>4</v>
@@ -22858,10 +22846,10 @@
         <v>320</v>
       </c>
       <c r="E332" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F332" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G332" t="s">
         <v>19</v>
@@ -22870,42 +22858,42 @@
         <v>20</v>
       </c>
       <c r="M332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V332">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W332">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s">
         <v>4</v>
@@ -22917,10 +22905,10 @@
         <v>320</v>
       </c>
       <c r="E333" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F333" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G333" t="s">
         <v>19</v>
@@ -22929,42 +22917,42 @@
         <v>20</v>
       </c>
       <c r="M333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V333">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W333">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B334" t="s">
         <v>4</v>
@@ -22976,10 +22964,10 @@
         <v>320</v>
       </c>
       <c r="E334" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F334" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G334" t="s">
         <v>19</v>
@@ -22988,42 +22976,42 @@
         <v>20</v>
       </c>
       <c r="M334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V334">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W334">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B335" t="s">
         <v>4</v>
@@ -23035,10 +23023,10 @@
         <v>320</v>
       </c>
       <c r="E335" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F335" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G335" t="s">
         <v>19</v>
@@ -23047,42 +23035,42 @@
         <v>20</v>
       </c>
       <c r="M335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="O335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="R335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="S335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="T335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="U335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="V335">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="W335">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="336" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B336" t="s">
         <v>4</v>
@@ -23094,11 +23082,11 @@
         <v>320</v>
       </c>
       <c r="E336" t="s">
+        <v>332</v>
+      </c>
+      <c r="F336" t="s">
         <v>330</v>
       </c>
-      <c r="F336" t="s">
-        <v>334</v>
-      </c>
       <c r="G336" t="s">
         <v>19</v>
       </c>
@@ -23106,45 +23094,45 @@
         <v>20</v>
       </c>
       <c r="M336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="O336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="R336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="S336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="T336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="U336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="V336">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="W336">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="337" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C337" t="s">
         <v>15</v>
@@ -23153,10 +23141,10 @@
         <v>320</v>
       </c>
       <c r="E337" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F337" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G337" t="s">
         <v>19</v>
@@ -23165,45 +23153,55 @@
         <v>20</v>
       </c>
       <c r="M337">
-        <v>100</v>
+        <v>183.25335889999999</v>
       </c>
       <c r="N337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
       <c r="O337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
       <c r="P337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
       <c r="Q337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
       <c r="R337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
       <c r="S337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
       <c r="T337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
       <c r="U337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
       <c r="V337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
       <c r="W337">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>183.25335889999999</v>
       </c>
     </row>
     <row r="338" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C338" t="s">
         <v>15</v>
@@ -23212,10 +23210,10 @@
         <v>320</v>
       </c>
       <c r="E338" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F338" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G338" t="s">
         <v>19</v>
@@ -23224,45 +23222,55 @@
         <v>20</v>
       </c>
       <c r="M338">
-        <v>100</v>
+        <v>305.42226490000002</v>
       </c>
       <c r="N338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="O338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="P338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="Q338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="R338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="S338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="T338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="U338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="V338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="W338">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
     </row>
     <row r="339" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C339" t="s">
         <v>15</v>
@@ -23271,10 +23279,10 @@
         <v>320</v>
       </c>
       <c r="E339" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="F339" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G339" t="s">
         <v>19</v>
@@ -23283,45 +23291,55 @@
         <v>20</v>
       </c>
       <c r="M339">
-        <v>100</v>
+        <v>305.42226490000002</v>
       </c>
       <c r="N339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="O339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="P339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="Q339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="R339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="S339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="T339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="U339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="V339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="W339">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
     </row>
     <row r="340" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C340" t="s">
         <v>15</v>
@@ -23330,10 +23348,10 @@
         <v>320</v>
       </c>
       <c r="E340" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F340" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G340" t="s">
         <v>19</v>
@@ -23342,45 +23360,55 @@
         <v>20</v>
       </c>
       <c r="M340">
-        <v>100</v>
+        <v>305.42226490000002</v>
       </c>
       <c r="N340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="O340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="P340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="Q340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="R340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="S340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="T340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="U340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="V340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
       <c r="W340">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>305.42226490000002</v>
       </c>
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="B341" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C341" t="s">
         <v>15</v>
@@ -23389,10 +23417,10 @@
         <v>320</v>
       </c>
       <c r="E341" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="F341" t="s">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="G341" t="s">
         <v>19</v>
@@ -23401,45 +23429,55 @@
         <v>20</v>
       </c>
       <c r="M341">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
       <c r="O341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
       <c r="P341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
       <c r="Q341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
       <c r="R341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
       <c r="S341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
       <c r="T341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
       <c r="U341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
       <c r="V341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
       <c r="W341">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>800</v>
       </c>
     </row>
     <row r="342" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C342" t="s">
         <v>15</v>
@@ -23448,10 +23486,10 @@
         <v>320</v>
       </c>
       <c r="E342" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F342" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G342" t="s">
         <v>19</v>
@@ -23460,42 +23498,52 @@
         <v>20</v>
       </c>
       <c r="M342">
-        <v>100</v>
+        <v>-55</v>
       </c>
       <c r="N342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
       <c r="O342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
       <c r="P342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
       <c r="Q342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
       <c r="R342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
       <c r="S342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
       <c r="T342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
       <c r="U342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
       <c r="V342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
       <c r="W342">
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>-55</v>
       </c>
     </row>
     <row r="343" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -23504,13 +23552,13 @@
         <v>15</v>
       </c>
       <c r="D343" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E343" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F343" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G343" t="s">
         <v>19</v>
@@ -23519,52 +23567,52 @@
         <v>20</v>
       </c>
       <c r="M343">
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="N343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="O343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="P343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="Q343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="R343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="S343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="T343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="U343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="V343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
       <c r="W343">
         <f t="shared" si="10"/>
-        <v>183.25335889999999</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="344" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -23573,13 +23621,13 @@
         <v>15</v>
       </c>
       <c r="D344" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E344" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F344" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G344" t="s">
         <v>19</v>
@@ -23588,52 +23636,52 @@
         <v>20</v>
       </c>
       <c r="M344">
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="N344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="O344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="P344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="Q344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="R344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="S344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="T344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="U344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="V344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
       <c r="W344">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>14200000</v>
       </c>
     </row>
     <row r="345" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -23642,13 +23690,13 @@
         <v>15</v>
       </c>
       <c r="D345" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F345" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G345" t="s">
         <v>19</v>
@@ -23657,52 +23705,52 @@
         <v>20</v>
       </c>
       <c r="M345">
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="N345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="O345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="P345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="Q345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="R345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="S345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="T345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="U345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="V345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
       <c r="W345">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>20700000</v>
       </c>
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -23711,13 +23759,13 @@
         <v>15</v>
       </c>
       <c r="D346" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E346" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F346" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="G346" t="s">
         <v>19</v>
@@ -23726,52 +23774,52 @@
         <v>20</v>
       </c>
       <c r="M346">
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="N346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="O346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="P346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="Q346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="R346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="S346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="T346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="U346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="V346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
       <c r="W346">
         <f t="shared" si="10"/>
-        <v>305.42226490000002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -23780,13 +23828,13 @@
         <v>15</v>
       </c>
       <c r="D347" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F347" t="s">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="G347" t="s">
         <v>19</v>
@@ -23795,52 +23843,52 @@
         <v>20</v>
       </c>
       <c r="M347">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="N347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="O347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="P347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="R347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="S347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="U347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="V347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="W347">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="348" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -23849,13 +23897,13 @@
         <v>15</v>
       </c>
       <c r="D348" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E348" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="F348" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G348" t="s">
         <v>19</v>
@@ -23864,52 +23912,52 @@
         <v>20</v>
       </c>
       <c r="M348">
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="N348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="O348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="P348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="Q348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="R348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="S348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="T348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="U348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="V348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
       <c r="W348">
         <f t="shared" si="10"/>
-        <v>-55</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -23918,13 +23966,13 @@
         <v>15</v>
       </c>
       <c r="D349" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F349" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G349" t="s">
         <v>19</v>
@@ -23933,52 +23981,52 @@
         <v>20</v>
       </c>
       <c r="M349">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="N349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="O349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="P349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="Q349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="R349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="S349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="T349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="U349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="V349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="W349">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
@@ -23987,13 +24035,13 @@
         <v>15</v>
       </c>
       <c r="D350" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E350" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F350" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G350" t="s">
         <v>19</v>
@@ -24002,52 +24050,52 @@
         <v>20</v>
       </c>
       <c r="M350">
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="N350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="O350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="P350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="Q350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="R350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="S350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="T350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="U350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="V350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
       <c r="W350">
         <f t="shared" si="10"/>
-        <v>14200000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -24056,13 +24104,13 @@
         <v>15</v>
       </c>
       <c r="D351" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E351" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F351" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G351" t="s">
         <v>19</v>
@@ -24071,52 +24119,52 @@
         <v>20</v>
       </c>
       <c r="M351">
-        <v>20700000</v>
+        <v>-3500</v>
       </c>
       <c r="N351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" ref="N351:W364" si="11">M351</f>
+        <v>-3500</v>
       </c>
       <c r="O351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" si="11"/>
+        <v>-3500</v>
       </c>
       <c r="P351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" si="11"/>
+        <v>-3500</v>
       </c>
       <c r="Q351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" si="11"/>
+        <v>-3500</v>
       </c>
       <c r="R351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" si="11"/>
+        <v>-3500</v>
       </c>
       <c r="S351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" si="11"/>
+        <v>-3500</v>
       </c>
       <c r="T351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" si="11"/>
+        <v>-3500</v>
       </c>
       <c r="U351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" si="11"/>
+        <v>-3500</v>
       </c>
       <c r="V351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" si="11"/>
+        <v>-3500</v>
       </c>
       <c r="W351">
-        <f t="shared" si="10"/>
-        <v>20700000</v>
+        <f t="shared" si="11"/>
+        <v>-3500</v>
       </c>
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -24125,13 +24173,13 @@
         <v>15</v>
       </c>
       <c r="D352" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E352" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F352" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G352" t="s">
         <v>19</v>
@@ -24140,52 +24188,52 @@
         <v>20</v>
       </c>
       <c r="M352">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="O352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="P352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="Q352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="R352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="S352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="T352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="U352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="V352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="W352">
-        <f t="shared" si="10"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -24194,13 +24242,13 @@
         <v>15</v>
       </c>
       <c r="D353" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E353" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F353" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G353" t="s">
         <v>19</v>
@@ -24209,52 +24257,52 @@
         <v>20</v>
       </c>
       <c r="M353">
-        <v>1100</v>
+        <v>-100</v>
       </c>
       <c r="N353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="O353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="P353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="Q353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="R353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="S353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="T353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="U353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="V353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>-100</v>
       </c>
       <c r="W353">
-        <f t="shared" si="10"/>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
@@ -24263,67 +24311,67 @@
         <v>15</v>
       </c>
       <c r="D354" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E354" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F354" t="s">
+        <v>367</v>
+      </c>
+      <c r="G354" t="s">
+        <v>19</v>
+      </c>
+      <c r="L354" t="s">
+        <v>20</v>
+      </c>
+      <c r="M354">
+        <v>-200</v>
+      </c>
+      <c r="N354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="O354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="P354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="Q354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="R354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="S354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="T354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="U354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="V354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="W354">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>363</v>
-      </c>
-      <c r="G354" t="s">
-        <v>19</v>
-      </c>
-      <c r="L354" t="s">
-        <v>20</v>
-      </c>
-      <c r="M354">
-        <v>5500</v>
-      </c>
-      <c r="N354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-      <c r="O354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-      <c r="P354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-      <c r="Q354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-      <c r="R354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-      <c r="S354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-      <c r="T354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-      <c r="U354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-      <c r="V354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-      <c r="W354">
-        <f t="shared" si="10"/>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>361</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
@@ -24332,13 +24380,13 @@
         <v>15</v>
       </c>
       <c r="D355" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E355" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F355" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G355" t="s">
         <v>19</v>
@@ -24347,52 +24395,52 @@
         <v>20</v>
       </c>
       <c r="M355">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="N355">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="O355">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="P355">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="Q355">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="R355">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="S355">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="T355">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="U355">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="V355">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="W355">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -24401,13 +24449,13 @@
         <v>15</v>
       </c>
       <c r="D356" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E356" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F356" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G356" t="s">
         <v>19</v>
@@ -24416,52 +24464,52 @@
         <v>20</v>
       </c>
       <c r="M356">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="N356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="O356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="P356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="Q356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="R356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="S356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="T356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="U356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="V356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>2700</v>
       </c>
       <c r="W356">
-        <f t="shared" si="10"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -24470,13 +24518,13 @@
         <v>15</v>
       </c>
       <c r="D357" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E357" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F357" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G357" t="s">
         <v>19</v>
@@ -24485,52 +24533,52 @@
         <v>20</v>
       </c>
       <c r="M357">
-        <v>-3500</v>
+        <v>10000</v>
       </c>
       <c r="N357">
-        <f t="shared" ref="N357:W370" si="11">M357</f>
-        <v>-3500</v>
+        <f t="shared" si="11"/>
+        <v>10000</v>
       </c>
       <c r="O357">
         <f t="shared" si="11"/>
-        <v>-3500</v>
+        <v>10000</v>
       </c>
       <c r="P357">
         <f t="shared" si="11"/>
-        <v>-3500</v>
+        <v>10000</v>
       </c>
       <c r="Q357">
         <f t="shared" si="11"/>
-        <v>-3500</v>
+        <v>10000</v>
       </c>
       <c r="R357">
         <f t="shared" si="11"/>
-        <v>-3500</v>
+        <v>10000</v>
       </c>
       <c r="S357">
         <f t="shared" si="11"/>
-        <v>-3500</v>
+        <v>10000</v>
       </c>
       <c r="T357">
         <f t="shared" si="11"/>
-        <v>-3500</v>
+        <v>10000</v>
       </c>
       <c r="U357">
         <f t="shared" si="11"/>
-        <v>-3500</v>
+        <v>10000</v>
       </c>
       <c r="V357">
         <f t="shared" si="11"/>
-        <v>-3500</v>
+        <v>10000</v>
       </c>
       <c r="W357">
         <f t="shared" si="11"/>
-        <v>-3500</v>
-      </c>
-    </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -24539,13 +24587,13 @@
         <v>15</v>
       </c>
       <c r="D358" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E358" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F358" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G358" t="s">
         <v>19</v>
@@ -24554,52 +24602,52 @@
         <v>20</v>
       </c>
       <c r="M358">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="N358">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="O358">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="P358">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="Q358">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="R358">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="S358">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="T358">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="U358">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="V358">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="W358">
         <f t="shared" si="11"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -24608,13 +24656,13 @@
         <v>15</v>
       </c>
       <c r="D359" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E359" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F359" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G359" t="s">
         <v>19</v>
@@ -24623,52 +24671,52 @@
         <v>20</v>
       </c>
       <c r="M359">
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="N359">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="O359">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="P359">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="Q359">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="R359">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="S359">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="T359">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="U359">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="V359">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>40000</v>
       </c>
       <c r="W359">
         <f t="shared" si="11"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
@@ -24677,13 +24725,13 @@
         <v>15</v>
       </c>
       <c r="D360" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E360" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F360" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G360" t="s">
         <v>19</v>
@@ -24692,52 +24740,52 @@
         <v>20</v>
       </c>
       <c r="M360">
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="N360">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="O360">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="P360">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="Q360">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="R360">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="S360">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="T360">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="U360">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="V360">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>100000</v>
       </c>
       <c r="W360">
         <f t="shared" si="11"/>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
@@ -24746,13 +24794,13 @@
         <v>15</v>
       </c>
       <c r="D361" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E361" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F361" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G361" t="s">
         <v>19</v>
@@ -24761,52 +24809,52 @@
         <v>20</v>
       </c>
       <c r="M361">
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="N361">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="O361">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="P361">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="Q361">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="R361">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="S361">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="T361">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="U361">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="V361">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>600000</v>
       </c>
       <c r="W361">
         <f t="shared" si="11"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
@@ -24815,13 +24863,13 @@
         <v>15</v>
       </c>
       <c r="D362" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E362" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F362" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G362" t="s">
         <v>19</v>
@@ -24830,52 +24878,52 @@
         <v>20</v>
       </c>
       <c r="M362">
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="N362">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="O362">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="P362">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="Q362">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="R362">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="S362">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="T362">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="U362">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="V362">
         <f t="shared" si="11"/>
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="W362">
         <f t="shared" si="11"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -24884,13 +24932,13 @@
         <v>15</v>
       </c>
       <c r="D363" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E363" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F363" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G363" t="s">
         <v>19</v>
@@ -24899,52 +24947,52 @@
         <v>20</v>
       </c>
       <c r="M363">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="N363">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="O363">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="P363">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="Q363">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="R363">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="S363">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="T363">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="U363">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="V363">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="W363">
         <f t="shared" si="11"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -24953,13 +25001,13 @@
         <v>15</v>
       </c>
       <c r="D364" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E364" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F364" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G364" t="s">
         <v>19</v>
@@ -24968,52 +25016,52 @@
         <v>20</v>
       </c>
       <c r="M364">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="N364">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="O364">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="P364">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="Q364">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="R364">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="S364">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="T364">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="U364">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="V364">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="W364">
         <f t="shared" si="11"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -25022,13 +25070,13 @@
         <v>15</v>
       </c>
       <c r="D365" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E365" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F365" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G365" t="s">
         <v>19</v>
@@ -25037,52 +25085,45 @@
         <v>20</v>
       </c>
       <c r="M365">
-        <v>40000</v>
+        <v>15</v>
       </c>
       <c r="N365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>15</v>
       </c>
       <c r="O365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>15</v>
       </c>
       <c r="P365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>15</v>
       </c>
       <c r="Q365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>15</v>
       </c>
       <c r="R365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="S365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>25</v>
       </c>
       <c r="T365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>30</v>
       </c>
       <c r="U365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>35</v>
       </c>
       <c r="V365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>40</v>
       </c>
       <c r="W365">
-        <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="X365" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
@@ -25091,13 +25132,13 @@
         <v>15</v>
       </c>
       <c r="D366" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E366" t="s">
-        <v>376</v>
+        <v>48</v>
       </c>
       <c r="F366" t="s">
-        <v>379</v>
+        <v>49</v>
       </c>
       <c r="G366" t="s">
         <v>19</v>
@@ -25106,52 +25147,45 @@
         <v>20</v>
       </c>
       <c r="M366">
-        <v>100000</v>
+        <v>15</v>
       </c>
       <c r="N366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>15</v>
       </c>
       <c r="O366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>15</v>
       </c>
       <c r="P366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>15</v>
       </c>
       <c r="Q366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>15</v>
       </c>
       <c r="R366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>20</v>
       </c>
       <c r="S366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>25</v>
       </c>
       <c r="T366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>30</v>
       </c>
       <c r="U366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>35</v>
       </c>
       <c r="V366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>40</v>
       </c>
       <c r="W366">
-        <f t="shared" si="11"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="X366" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -25160,13 +25194,13 @@
         <v>15</v>
       </c>
       <c r="D367" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E367" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F367" t="s">
-        <v>380</v>
+        <v>49</v>
       </c>
       <c r="G367" t="s">
         <v>19</v>
@@ -25175,52 +25209,45 @@
         <v>20</v>
       </c>
       <c r="M367">
-        <v>600000</v>
+        <v>15</v>
       </c>
       <c r="N367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
+        <v>15</v>
       </c>
       <c r="O367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
+        <v>15</v>
       </c>
       <c r="P367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
+        <v>15</v>
       </c>
       <c r="Q367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
+        <v>15</v>
       </c>
       <c r="R367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
+        <v>20</v>
       </c>
       <c r="S367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
+        <v>25</v>
       </c>
       <c r="T367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
+        <v>30</v>
       </c>
       <c r="U367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
+        <v>35</v>
       </c>
       <c r="V367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
+        <v>40</v>
       </c>
       <c r="W367">
-        <f t="shared" si="11"/>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="X367" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -25229,13 +25256,13 @@
         <v>15</v>
       </c>
       <c r="D368" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="E368" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F368" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="G368" t="s">
         <v>19</v>
@@ -25244,52 +25271,52 @@
         <v>20</v>
       </c>
       <c r="M368">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="N368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" ref="N368:W372" si="12">M368</f>
+        <v>0</v>
       </c>
       <c r="O368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="P368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="R368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="S368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="T368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="U368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="V368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="W368">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
@@ -25298,13 +25325,13 @@
         <v>15</v>
       </c>
       <c r="D369" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="E369" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F369" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G369" t="s">
         <v>19</v>
@@ -25313,52 +25340,52 @@
         <v>20</v>
       </c>
       <c r="M369">
-        <v>23000</v>
+        <v>6300</v>
       </c>
       <c r="N369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="O369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="P369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="Q369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="R369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="S369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="T369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="U369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="V369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="W369">
-        <f t="shared" si="11"/>
-        <v>23000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
     </row>
     <row r="370" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
@@ -25367,13 +25394,13 @@
         <v>15</v>
       </c>
       <c r="D370" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="E370" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F370" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="G370" t="s">
         <v>19</v>
@@ -25382,52 +25409,52 @@
         <v>20</v>
       </c>
       <c r="M370">
-        <v>100000</v>
+        <v>6300</v>
       </c>
       <c r="N370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="O370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="P370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="Q370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="R370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="S370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="T370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="U370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="V370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="W370">
-        <f t="shared" si="11"/>
-        <v>100000</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
     </row>
     <row r="371" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -25436,13 +25463,13 @@
         <v>15</v>
       </c>
       <c r="D371" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="E371" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F371" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G371" t="s">
         <v>19</v>
@@ -25451,45 +25478,52 @@
         <v>20</v>
       </c>
       <c r="M371">
-        <v>15</v>
+        <v>-4000</v>
       </c>
       <c r="N371">
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
       <c r="O371">
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
       <c r="P371">
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
       <c r="Q371">
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
       <c r="R371">
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
       <c r="S371">
-        <v>25</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
       <c r="T371">
-        <v>30</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
       <c r="U371">
-        <v>35</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
       <c r="V371">
-        <v>40</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
       <c r="W371">
-        <v>45</v>
-      </c>
-      <c r="X371" t="s">
-        <v>389</v>
+        <f t="shared" si="12"/>
+        <v>-4000</v>
       </c>
     </row>
     <row r="372" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -25498,13 +25532,13 @@
         <v>15</v>
       </c>
       <c r="D372" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="E372" t="s">
-        <v>48</v>
+        <v>396</v>
       </c>
       <c r="F372" t="s">
-        <v>49</v>
+        <v>397</v>
       </c>
       <c r="G372" t="s">
         <v>19</v>
@@ -25513,45 +25547,48 @@
         <v>20</v>
       </c>
       <c r="M372">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="N372">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="O372">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="P372">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="Q372">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="R372">
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>120</v>
       </c>
       <c r="S372">
-        <v>25</v>
+        <f t="shared" si="12"/>
+        <v>120</v>
       </c>
       <c r="T372">
-        <v>30</v>
+        <f t="shared" si="12"/>
+        <v>120</v>
       </c>
       <c r="U372">
-        <v>35</v>
+        <f t="shared" si="12"/>
+        <v>120</v>
       </c>
       <c r="V372">
-        <v>40</v>
+        <f t="shared" si="12"/>
+        <v>120</v>
       </c>
       <c r="W372">
-        <v>45</v>
-      </c>
-      <c r="X372" t="s">
-        <v>389</v>
+        <f t="shared" si="12"/>
+        <v>120</v>
       </c>
     </row>
     <row r="373" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -25560,13 +25597,13 @@
         <v>15</v>
       </c>
       <c r="D373" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="E373" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F373" t="s">
-        <v>49</v>
+        <v>384</v>
       </c>
       <c r="G373" t="s">
         <v>19</v>
@@ -25608,12 +25645,12 @@
         <v>45</v>
       </c>
       <c r="X373" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="374" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B374" t="s">
         <v>5</v>
@@ -25622,13 +25659,13 @@
         <v>15</v>
       </c>
       <c r="D374" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E374" t="s">
-        <v>395</v>
+        <v>48</v>
       </c>
       <c r="F374" t="s">
-        <v>396</v>
+        <v>49</v>
       </c>
       <c r="G374" t="s">
         <v>19</v>
@@ -25637,52 +25674,45 @@
         <v>20</v>
       </c>
       <c r="M374">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N374">
-        <f t="shared" ref="N374:W378" si="12">M374</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O374">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P374">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q374">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R374">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S374">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T374">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U374">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V374">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W374">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="X374" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="375" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -25691,13 +25721,13 @@
         <v>15</v>
       </c>
       <c r="D375" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E375" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F375" t="s">
-        <v>397</v>
+        <v>49</v>
       </c>
       <c r="G375" t="s">
         <v>19</v>
@@ -25706,52 +25736,45 @@
         <v>20</v>
       </c>
       <c r="M375">
-        <v>6300</v>
+        <v>15</v>
       </c>
       <c r="N375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>15</v>
       </c>
       <c r="O375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>15</v>
       </c>
       <c r="P375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>15</v>
       </c>
       <c r="Q375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>15</v>
       </c>
       <c r="R375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>20</v>
       </c>
       <c r="S375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>25</v>
       </c>
       <c r="T375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>30</v>
       </c>
       <c r="U375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>35</v>
       </c>
       <c r="V375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>40</v>
       </c>
       <c r="W375">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <v>45</v>
+      </c>
+      <c r="X375" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="376" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -25760,13 +25783,13 @@
         <v>15</v>
       </c>
       <c r="D376" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E376" t="s">
-        <v>395</v>
+        <v>181</v>
       </c>
       <c r="F376" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="G376" t="s">
         <v>19</v>
@@ -25775,52 +25798,52 @@
         <v>20</v>
       </c>
       <c r="M376">
-        <v>6300</v>
+        <v>-1404201.01198656</v>
       </c>
       <c r="N376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" ref="N376:W378" si="13">M376</f>
+        <v>-1404201.01198656</v>
       </c>
       <c r="O376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" si="13"/>
+        <v>-1404201.01198656</v>
       </c>
       <c r="P376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" si="13"/>
+        <v>-1404201.01198656</v>
       </c>
       <c r="Q376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" si="13"/>
+        <v>-1404201.01198656</v>
       </c>
       <c r="R376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" si="13"/>
+        <v>-1404201.01198656</v>
       </c>
       <c r="S376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" si="13"/>
+        <v>-1404201.01198656</v>
       </c>
       <c r="T376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" si="13"/>
+        <v>-1404201.01198656</v>
       </c>
       <c r="U376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" si="13"/>
+        <v>-1404201.01198656</v>
       </c>
       <c r="V376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" si="13"/>
+        <v>-1404201.01198656</v>
       </c>
       <c r="W376">
-        <f t="shared" si="12"/>
-        <v>6300</v>
+        <f t="shared" si="13"/>
+        <v>-1404201.01198656</v>
       </c>
     </row>
     <row r="377" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
@@ -25829,13 +25852,13 @@
         <v>15</v>
       </c>
       <c r="D377" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E377" t="s">
-        <v>395</v>
+        <v>181</v>
       </c>
       <c r="F377" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G377" t="s">
         <v>19</v>
@@ -25844,52 +25867,52 @@
         <v>20</v>
       </c>
       <c r="M377">
-        <v>-4000</v>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="N377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="O377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="P377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="Q377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="R377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="S377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="T377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="U377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="V377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
       <c r="W377">
-        <f t="shared" si="12"/>
-        <v>-4000</v>
+        <f t="shared" si="13"/>
+        <v>-1474411.0668617999</v>
       </c>
     </row>
     <row r="378" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -25898,13 +25921,13 @@
         <v>15</v>
       </c>
       <c r="D378" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="E378" t="s">
-        <v>400</v>
+        <v>263</v>
       </c>
       <c r="F378" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="G378" t="s">
         <v>19</v>
@@ -25913,434 +25936,45 @@
         <v>20</v>
       </c>
       <c r="M378">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="N378">
-        <v>160</v>
-      </c>
-      <c r="O378">
-        <v>140</v>
-      </c>
-      <c r="P378">
-        <v>130</v>
-      </c>
-      <c r="Q378">
-        <v>120</v>
-      </c>
-      <c r="R378">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="S378">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="T378">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="U378">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="V378">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="W378">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>402</v>
-      </c>
-      <c r="B379" t="s">
-        <v>5</v>
-      </c>
-      <c r="C379" t="s">
-        <v>15</v>
-      </c>
-      <c r="D379" t="s">
-        <v>394</v>
-      </c>
-      <c r="E379" t="s">
-        <v>387</v>
-      </c>
-      <c r="F379" t="s">
-        <v>388</v>
-      </c>
-      <c r="G379" t="s">
-        <v>19</v>
-      </c>
-      <c r="L379" t="s">
-        <v>20</v>
-      </c>
-      <c r="M379">
-        <v>15</v>
-      </c>
-      <c r="N379">
-        <v>15</v>
-      </c>
-      <c r="O379">
-        <v>15</v>
-      </c>
-      <c r="P379">
-        <v>15</v>
-      </c>
-      <c r="Q379">
-        <v>15</v>
-      </c>
-      <c r="R379">
-        <v>20</v>
-      </c>
-      <c r="S379">
-        <v>25</v>
-      </c>
-      <c r="T379">
-        <v>30</v>
-      </c>
-      <c r="U379">
-        <v>35</v>
-      </c>
-      <c r="V379">
-        <v>40</v>
-      </c>
-      <c r="W379">
-        <v>45</v>
-      </c>
-      <c r="X379" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>403</v>
-      </c>
-      <c r="B380" t="s">
-        <v>5</v>
-      </c>
-      <c r="C380" t="s">
-        <v>15</v>
-      </c>
-      <c r="D380" t="s">
-        <v>394</v>
-      </c>
-      <c r="E380" t="s">
-        <v>48</v>
-      </c>
-      <c r="F380" t="s">
-        <v>49</v>
-      </c>
-      <c r="G380" t="s">
-        <v>19</v>
-      </c>
-      <c r="L380" t="s">
-        <v>20</v>
-      </c>
-      <c r="M380">
-        <v>15</v>
-      </c>
-      <c r="N380">
-        <v>15</v>
-      </c>
-      <c r="O380">
-        <v>15</v>
-      </c>
-      <c r="P380">
-        <v>15</v>
-      </c>
-      <c r="Q380">
-        <v>15</v>
-      </c>
-      <c r="R380">
-        <v>20</v>
-      </c>
-      <c r="S380">
-        <v>25</v>
-      </c>
-      <c r="T380">
-        <v>30</v>
-      </c>
-      <c r="U380">
-        <v>35</v>
-      </c>
-      <c r="V380">
-        <v>40</v>
-      </c>
-      <c r="W380">
-        <v>45</v>
-      </c>
-      <c r="X380" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>404</v>
-      </c>
-      <c r="B381" t="s">
-        <v>5</v>
-      </c>
-      <c r="C381" t="s">
-        <v>15</v>
-      </c>
-      <c r="D381" t="s">
-        <v>394</v>
-      </c>
-      <c r="E381" t="s">
-        <v>392</v>
-      </c>
-      <c r="F381" t="s">
-        <v>49</v>
-      </c>
-      <c r="G381" t="s">
-        <v>19</v>
-      </c>
-      <c r="L381" t="s">
-        <v>20</v>
-      </c>
-      <c r="M381">
-        <v>15</v>
-      </c>
-      <c r="N381">
-        <v>15</v>
-      </c>
-      <c r="O381">
-        <v>15</v>
-      </c>
-      <c r="P381">
-        <v>15</v>
-      </c>
-      <c r="Q381">
-        <v>15</v>
-      </c>
-      <c r="R381">
-        <v>20</v>
-      </c>
-      <c r="S381">
-        <v>25</v>
-      </c>
-      <c r="T381">
-        <v>30</v>
-      </c>
-      <c r="U381">
-        <v>35</v>
-      </c>
-      <c r="V381">
-        <v>40</v>
-      </c>
-      <c r="W381">
-        <v>45</v>
-      </c>
-      <c r="X381" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>405</v>
-      </c>
-      <c r="B382" t="s">
-        <v>5</v>
-      </c>
-      <c r="C382" t="s">
-        <v>15</v>
-      </c>
-      <c r="D382" t="s">
-        <v>406</v>
-      </c>
-      <c r="E382" t="s">
-        <v>181</v>
-      </c>
-      <c r="F382" t="s">
-        <v>407</v>
-      </c>
-      <c r="G382" t="s">
-        <v>19</v>
-      </c>
-      <c r="L382" t="s">
-        <v>20</v>
-      </c>
-      <c r="M382">
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="N382">
-        <f t="shared" ref="N382:W384" si="13">M382</f>
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="O382">
-        <f t="shared" si="13"/>
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="P382">
-        <f t="shared" si="13"/>
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="Q382">
-        <f t="shared" si="13"/>
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="R382">
-        <f t="shared" si="13"/>
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="S382">
-        <f t="shared" si="13"/>
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="T382">
-        <f t="shared" si="13"/>
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="U382">
-        <f t="shared" si="13"/>
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="V382">
-        <f t="shared" si="13"/>
-        <v>-1404201.01198656</v>
-      </c>
-      <c r="W382">
-        <f t="shared" si="13"/>
-        <v>-1404201.01198656</v>
-      </c>
-    </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>405</v>
-      </c>
-      <c r="B383" t="s">
-        <v>5</v>
-      </c>
-      <c r="C383" t="s">
-        <v>15</v>
-      </c>
-      <c r="D383" t="s">
-        <v>406</v>
-      </c>
-      <c r="E383" t="s">
-        <v>181</v>
-      </c>
-      <c r="F383" t="s">
-        <v>408</v>
-      </c>
-      <c r="G383" t="s">
-        <v>19</v>
-      </c>
-      <c r="L383" t="s">
-        <v>20</v>
-      </c>
-      <c r="M383">
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="N383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="O383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="P383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="Q383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="R383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="S383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="T383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="U383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="V383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-      <c r="W383">
-        <f t="shared" si="13"/>
-        <v>-1474411.0668617999</v>
-      </c>
-    </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>409</v>
-      </c>
-      <c r="B384" t="s">
-        <v>5</v>
-      </c>
-      <c r="C384" t="s">
-        <v>15</v>
-      </c>
-      <c r="D384" t="s">
-        <v>410</v>
-      </c>
-      <c r="E384" t="s">
-        <v>263</v>
-      </c>
-      <c r="F384" t="s">
-        <v>68</v>
-      </c>
-      <c r="G384" t="s">
-        <v>19</v>
-      </c>
-      <c r="L384" t="s">
-        <v>20</v>
-      </c>
-      <c r="M384">
-        <v>500</v>
-      </c>
-      <c r="N384">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="O384">
+      <c r="O378">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="P384">
+      <c r="P378">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="Q384">
+      <c r="Q378">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="R384">
+      <c r="R378">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="S384">
+      <c r="S378">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="T384">
+      <c r="T378">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="U384">
+      <c r="U378">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="V384">
+      <c r="V378">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>
-      <c r="W384">
+      <c r="W378">
         <f t="shared" si="13"/>
         <v>500</v>
       </c>

--- a/csv/model/CIMS_FIC/formula_CIMS_FIC_BC.xlsx
+++ b/csv/model/CIMS_FIC/formula_CIMS_FIC_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_FIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F22A4EE1-89A2-45FB-ABEE-182689895595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31ABC90E-D5D2-4CC6-A473-CE9CAA67B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCEA132F-F861-4484-9A47-21B48E8F1781}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C51C6C3B-3BFC-426B-84C4-3336F71F028D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>Fluidized Bed Drying and Cleaning</t>
   </si>
   <si>
-    <t>CIMS.CAN.BC.Natural Gas Production.Natural Gas Supply.Processing.Processing Plants</t>
+    <t>CIMS.CAN.BC.Natural Gas Production.Supply.Processing.Processing Plants</t>
   </si>
   <si>
     <t>Natural Gas Production</t>
@@ -119,7 +119,7 @@
     <t>Processing</t>
   </si>
   <si>
-    <t>CIMS.CAN.BC.Natural Gas Production.Natural Gas Supply.Transmission</t>
+    <t>CIMS.CAN.BC.Natural Gas Production.Supply.Transmission</t>
   </si>
   <si>
     <t>Transmission</t>
@@ -128,7 +128,7 @@
     <t>Transmission HFO</t>
   </si>
   <si>
-    <t>CIMS.CAN.BC.Natural Gas Production.Natural Gas Supply.Direct Drive Small</t>
+    <t>CIMS.CAN.BC.Natural Gas Production.Supply.Direct Drive Small</t>
   </si>
   <si>
     <t>Direct Drive Small</t>
@@ -143,7 +143,7 @@
     <t>Reciprocating compressor electric</t>
   </si>
   <si>
-    <t>CIMS.CAN.BC.Natural Gas Production.Natural Gas Supply.Direct Drive Large</t>
+    <t>CIMS.CAN.BC.Natural Gas Production.Supply.Direct Drive Large</t>
   </si>
   <si>
     <t>Direct Drive Large</t>
@@ -158,7 +158,7 @@
     <t>Eff AC motor 500 hp</t>
   </si>
   <si>
-    <t>CIMS.CAN.BC.Natural Gas Production.Natural Gas Supply.Flaring</t>
+    <t>CIMS.CAN.BC.Natural Gas Production.Supply.Flaring</t>
   </si>
   <si>
     <t>Flaring</t>
@@ -167,7 +167,7 @@
     <t>No CCS</t>
   </si>
   <si>
-    <t>CIMS.CAN.BC.Natural Gas Production.Natural Gas Supply.Venting.Point Venting</t>
+    <t>CIMS.CAN.BC.Natural Gas Production.Supply.Venting.Point Venting</t>
   </si>
   <si>
     <t>Point Venting</t>
@@ -188,7 +188,7 @@
     <t>Ethanol</t>
   </si>
   <si>
-    <t>CIMS.CAN.BC.Natural Gas Production.Natural Gas Supply.Extraction.Off road transport</t>
+    <t>CIMS.CAN.BC.Natural Gas Production.Supply.Extraction.Off road transport</t>
   </si>
   <si>
     <t>Off road transport</t>
@@ -1624,7 +1624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2BBD9A-9DFE-4C2A-B90A-1AFDCCA65967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF999C6-7AA3-4FD4-87CF-D846222B5D8D}">
   <dimension ref="A1:X389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
